--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>meta</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t xml:space="preserve">loosing her feels too dire - elvesztette a lanyt es ez szornyu :D </t>
+  </si>
+  <si>
+    <t>poignant</t>
+  </si>
+  <si>
+    <t>megrendito</t>
+  </si>
+  <si>
+    <t>burden of life</t>
+  </si>
+  <si>
+    <t>az elet terhe</t>
+  </si>
+  <si>
+    <t>pilgrim</t>
+  </si>
+  <si>
+    <t>zarandok</t>
   </si>
 </sst>
 </file>
@@ -400,7 +418,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,6 +437,30 @@
       </c>
       <c r="C1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.tyzden, </t>
-  </si>
-  <si>
-    <t>18.marc</t>
-  </si>
-  <si>
-    <t>sap</t>
-  </si>
-  <si>
-    <t>19.marc.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>too dire</t>
   </si>
@@ -60,13 +45,118 @@
   </si>
   <si>
     <t>zarandok</t>
+  </si>
+  <si>
+    <t>headless chrome</t>
+  </si>
+  <si>
+    <t>phantomJS</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>bash scripting</t>
+  </si>
+  <si>
+    <t>windows CLI basics</t>
+  </si>
+  <si>
+    <t>ITIL / ITSM</t>
+  </si>
+  <si>
+    <t>swagger</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>connect to a windows server ?!</t>
+  </si>
+  <si>
+    <t>cli-skeleton (awscli)</t>
+  </si>
+  <si>
+    <t>ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpi - message passing protocol </t>
+  </si>
+  <si>
+    <t>Maros - kubernetes a dalsie clanky v kpi magazine</t>
+  </si>
+  <si>
+    <t>detriment</t>
+  </si>
+  <si>
+    <t>hatrany</t>
+  </si>
+  <si>
+    <t>functional programming</t>
+  </si>
+  <si>
+    <t>SCALA</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>torulkozo</t>
+  </si>
+  <si>
+    <t>to elicit</t>
+  </si>
+  <si>
+    <t>kivaltani</t>
+  </si>
+  <si>
+    <t>WebAssembly is a new type of code that can be run in modern web browsers — it is a low-level assembly-like language with a compact binary format that runs with near-native performance and provides languages such as C/C++ and Rust with a compilation target so that they can run on the web.</t>
+  </si>
+  <si>
+    <t>WebGL is a JavaScript API that lets you draw 3D or 2D graphics using the HTML &lt;canvas&gt; element. This technology lets you use standard OpenGL ES in Web content.</t>
+  </si>
+  <si>
+    <t>WebAssembly</t>
+  </si>
+  <si>
+    <t>WebGL</t>
+  </si>
+  <si>
+    <t>Erlang</t>
+  </si>
+  <si>
+    <t>Erlang is a general-purpose, concurrent, functional programming language, and a garbage-collected runtime system. Erlang is a programming language used to build massively scalable soft real-time systems with requirements on high availability. Some of its uses are in telecoms, banking, e-commerce, computer telephony and instant messaging. Erlang's runtime system has built-in support for concurrency, distribution and fault tolerance.</t>
+  </si>
+  <si>
+    <t>MQTT</t>
+  </si>
+  <si>
+    <t>Makefile</t>
+  </si>
+  <si>
+    <t>A makefile is a file (by default named "Makefile") containing a set of directives used by a make build automation tool to generate a target/goal.Using C/C++ as an example, when a C/C++ source file is changed, it must be recompiled. If a header file has changed, each C/C++ source file that includes the header file must be recompiled to be safe. Each compilation produces an object file corresponding to the source file. Finally, if any source file has been recompiled, all the object files, whether newly made or saved from previous compilations, must be linked together to produce the new executable program</t>
+  </si>
+  <si>
+    <t>QUEUE</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>Apache Kafka is an open-source stream-processing software platform developed by LinkedIn and donated to the Apache Software Foundation, written in Scala and Java. The project aims to provide a unified, high-throughput, low-latency platform for handling real-time data feeds. Its storage layer is essentially a "massively scalable pub/sub message queue designed as a distributed transaction log, making it highly valuable for enterprise infrastructures to process streaming data. Kafka can also connect to external systems (for data import/export) via Kafka Connect and provides Kafka Streams, a Java stream processing library.</t>
+  </si>
+  <si>
+    <t>Apache Spark</t>
+  </si>
+  <si>
+    <t>Apache Spark is an open-source distributed general-purpose cluster-computing framework. Spark provides an interface for programming entire clusters with implicit data parallelism and fault tolerance. Originally developed at the University of California, Berkeley's AMPLab, the Spark codebase was later donated to the Apache Software Foundation, which has maintained it since.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +169,37 @@
       <color rgb="FF6A6A6A"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,6 +232,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,37 +569,61 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
@@ -525,34 +688,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="163.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B23:B26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>too dire</t>
   </si>
@@ -47,18 +47,9 @@
     <t>zarandok</t>
   </si>
   <si>
-    <t>headless chrome</t>
-  </si>
-  <si>
-    <t>phantomJS</t>
-  </si>
-  <si>
     <t>selenium</t>
   </si>
   <si>
-    <t>bash scripting</t>
-  </si>
-  <si>
     <t>windows CLI basics</t>
   </si>
   <si>
@@ -68,18 +59,12 @@
     <t>swagger</t>
   </si>
   <si>
-    <t>SAM</t>
-  </si>
-  <si>
     <t>connect to a windows server ?!</t>
   </si>
   <si>
     <t>cli-skeleton (awscli)</t>
   </si>
   <si>
-    <t>ansible</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mpi - message passing protocol </t>
   </si>
   <si>
@@ -92,12 +77,6 @@
     <t>hatrany</t>
   </si>
   <si>
-    <t>functional programming</t>
-  </si>
-  <si>
-    <t>SCALA</t>
-  </si>
-  <si>
     <t>towel</t>
   </si>
   <si>
@@ -150,6 +129,42 @@
   </si>
   <si>
     <t>Apache Spark is an open-source distributed general-purpose cluster-computing framework. Spark provides an interface for programming entire clusters with implicit data parallelism and fault tolerance. Originally developed at the University of California, Berkeley's AMPLab, the Spark codebase was later donated to the Apache Software Foundation, which has maintained it since.</t>
+  </si>
+  <si>
+    <t>bash scripting - TOPIC</t>
+  </si>
+  <si>
+    <t>discontinued</t>
+  </si>
+  <si>
+    <t>megszakitva</t>
+  </si>
+  <si>
+    <t>PhantomJS</t>
+  </si>
+  <si>
+    <t>PhantomJS is a discontinued headless browser used for automating web page interaction. PhantomJS provides a JavaScript API enabling automated navigation, screenshots, user behavior and assertions making it a common tool used to run browser-based unit tests in a headless system like a continuous integration environment. PhantomJS is based on WebKit making it a similar browsing environment to Safari and Google Chrome (before Chrome's fork of WebKit evolved into Blink). It is open-source software released under the BSD License</t>
+  </si>
+  <si>
+    <t>Headless Browser</t>
+  </si>
+  <si>
+    <t>A browser without a GUI. Headless browsers provide automated control of a web page in an environment similar to popular web browsers, but are executed via a command-line interface or using network communication. They are particularly useful for testing web pages as they are able to render and understand HTML the same way a browser would, including styling elements such as page layout, colour, font selection and execution of JavaScript and AJAX which are usually not available when using other testing methods. Examples: Google Chrome, Firefox, PHantomJS</t>
+  </si>
+  <si>
+    <t>Web scraping</t>
+  </si>
+  <si>
+    <t>Web scraping, web harvesting, or web data extraction is data scraping used for extracting data from websites.[1] Web scraping software may access the World Wide Web directly using the Hypertext Transfer Protocol, or through a web browser. While web scraping can be done manually by a software user, the term typically refers to automated processes implemented using a bot or web crawler. It is a form of copying, in which specific data is gathered and copied from the web, typically into a central local database or spreadsheet, for later retrieval or analysis.</t>
+  </si>
+  <si>
+    <t>SCALA - TOPIC</t>
+  </si>
+  <si>
+    <t>SAM - TOPIC</t>
+  </si>
+  <si>
+    <t>ansible - TOPIC</t>
   </si>
 </sst>
 </file>
@@ -222,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,6 +253,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -245,10 +266,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,7 +575,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,26 +622,34 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
@@ -688,7 +714,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -702,166 +728,214 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-    </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
+    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B2:B5"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>too dire</t>
   </si>
@@ -165,6 +165,42 @@
   </si>
   <si>
     <t>ansible - TOPIC</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>szamla</t>
+  </si>
+  <si>
+    <t>spouse</t>
+  </si>
+  <si>
+    <t>hazastars, hitves</t>
+  </si>
+  <si>
+    <t>GDPR</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation</t>
+  </si>
+  <si>
+    <t>data privacy notices are obligatory</t>
+  </si>
+  <si>
+    <t>az adatvédelmi értesítések kötelezőek</t>
+  </si>
+  <si>
+    <t>i am entitled to</t>
+  </si>
+  <si>
+    <t>jogosult vagyok</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>the effective centre of an activity, region, or network.</t>
   </si>
 </sst>
 </file>
@@ -259,14 +295,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,6 +688,54 @@
         <v>39</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
     </row>
@@ -716,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -735,21 +819,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -768,7 +852,7 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -776,25 +860,25 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -813,12 +897,12 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -832,15 +916,15 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
@@ -848,18 +932,18 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
@@ -867,34 +951,34 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
@@ -902,38 +986,37 @@
       </c>
     </row>
     <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="9"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="9"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="9"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
@@ -942,6 +1025,7 @@
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B34:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>too dire</t>
   </si>
@@ -165,6 +165,43 @@
   </si>
   <si>
     <t>ansible - TOPIC</t>
+  </si>
+  <si>
+    <t>ITIL (Information Technolohy Infrastructure Library)</t>
+  </si>
+  <si>
+    <t>Set of detailed practices for IT service management (ITSM) that focuses on aligning IT services with the needs of business. ITIL describes processes, procedures, tasks, and checklists which are not organization-specific nor technology-specific, but can be applied by an organization for establishing integration with the organization's strategy, delivering value, and maintaining a minimum level of competency. It allows the organization to establish a baseline from which it can plan, implement, and measure.</t>
+  </si>
+  <si>
+    <t>ITSM (IT Service Management)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refers to the entirety of activities – directed by policies, organized and structured in processes and supporting procedures – that are performed by an organization to design, plan, deliver, operate and control IT services offered to customers. Differing from more technology-oriented IT management approaches like network management and IT systems management, IT service management is characterized by adopting a process approach towards management, focusing on customer needs and IT services for customers rather than IT systems, and stressing continual improvement. </t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>indian rupee</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>Ansible is a radically simple IT automation engine that automates cloud provisioning, configuration management, application deployment, intra-service orchestration, and many other IT needs. It uses no agents and no additional custom security infrastructure, so it's easy to deploy - and most importantly, it uses a very simple language (YAML, in the form of Ansible Playbooks) that allow you to describe your automation jobs in a way that approaches plain English.</t>
+  </si>
+  <si>
+    <t>Boilerplate code</t>
+  </si>
+  <si>
+    <t>It is any seemingly repetitive code that shows up again and again in order to get some result that seems like it ought to be much simpler.
+Boilerplate text, or simply boilerplate, is any written text (copy) that can be reused in new contexts or applications without significant changes to the original. The term is used in reference to statements, contracts and computer code, and is used in the media to refer to hackneyed or unoriginal writing.</t>
+  </si>
+  <si>
+    <t>procrastinator</t>
+  </si>
+  <si>
+    <t>halogato</t>
   </si>
 </sst>
 </file>
@@ -259,18 +296,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -286,7 +323,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,18 +611,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.33203125" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -604,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -612,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -620,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -628,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -636,7 +673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -644,7 +681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -652,58 +689,74 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -714,19 +767,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.21875" customWidth="1"/>
-    <col min="2" max="2" width="163.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="163.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -734,29 +787,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -764,44 +818,44 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -809,139 +863,210 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-    </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
-    </row>
-    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
-    </row>
-    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+    </row>
+    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>too dire</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>the effective centre of an activity, region, or network.</t>
+  </si>
+  <si>
+    <t>monospace, non-proportional font</t>
+  </si>
+  <si>
+    <t>facilitates</t>
+  </si>
+  <si>
+    <t>megkonnyit</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +784,14 @@
         <v>70</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
     </row>
@@ -839,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B56"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,6 +959,9 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
       <c r="B16" s="10"/>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>too dire</t>
   </si>
@@ -62,9 +62,6 @@
     <t>connect to a windows server ?!</t>
   </si>
   <si>
-    <t>cli-skeleton (awscli)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mpi - message passing protocol </t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Apache Spark is an open-source distributed general-purpose cluster-computing framework. Spark provides an interface for programming entire clusters with implicit data parallelism and fault tolerance. Originally developed at the University of California, Berkeley's AMPLab, the Spark codebase was later donated to the Apache Software Foundation, which has maintained it since.</t>
   </si>
   <si>
-    <t>bash scripting - TOPIC</t>
-  </si>
-  <si>
     <t>discontinued</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
   </si>
   <si>
     <t>SAM - TOPIC</t>
-  </si>
-  <si>
-    <t>ansible - TOPIC</t>
   </si>
   <si>
     <t>ITIL (Information Technolohy Infrastructure Library)</t>
@@ -234,13 +225,44 @@
     <t>the effective centre of an activity, region, or network.</t>
   </si>
   <si>
-    <t>monospace, non-proportional font</t>
-  </si>
-  <si>
     <t>facilitates</t>
   </si>
   <si>
     <t>megkonnyit</t>
+  </si>
+  <si>
+    <t>IBM Watson</t>
+  </si>
+  <si>
+    <t>Watson is a question-answering computer system capable of answering questions posed in natural language, developed in IBM's DeepQA project by a research team led by principal investigator David Ferrucci. Watson was named after IBM's first CEO, industrialist Thomas J. Watson</t>
+  </si>
+  <si>
+    <t>AWS CLI Skeletons</t>
+  </si>
+  <si>
+    <t>Most of the AWS Command Line Interface (AWS CLI) commands support the ability to accept all of the parameter input from a file using the --cli-input-json parameter.
+Those same commands helpfully provide the --generate-cli-skeleton to generate a file with all of the parameters that you can edit and fill in. Then you can run the command with the --cli-input-json parameter and point to the filled-in file. There are several AWS CLI commands that don't map directly to individual AWS API operations, such as the aws s3 commands. Such commands don't support either the --generate-cli-skeleton or --cli-input-json parameters that are discussed on this page.</t>
+  </si>
+  <si>
+    <t>Monospaced fonts</t>
+  </si>
+  <si>
+    <t>A monospaced font, also called a fixed-pitch, fixed-width, or non-proportional font, is a font whose letters and characters each occupy the same amount of horizontal space. This contrasts with variable-width fonts, where the letters and spacings have different widths.</t>
+  </si>
+  <si>
+    <t>MPI - Message Passing Interface</t>
+  </si>
+  <si>
+    <t>Message Passing Interface (MPI) is a standardized and portable message-passing standard designed by a group of researchers from academia and industry to function on a wide variety of parallel computing architectures. The standard defines the syntax and semantics of a core of library routines useful to a wide range of users writing portable message-passing programs in C, C++, and Fortran. There are several well-tested and efficient implementations of MPI, many of which are open-source or in the public domain. These fostered the development of a parallel software industry, and encouraged development of portable and scalable large-scale parallel applications.</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elosegit </t>
+  </si>
+  <si>
+    <t>encourage the development of (something, especially something desirable).</t>
   </si>
 </sst>
 </file>
@@ -313,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,9 +366,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -362,7 +387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,17 +676,17 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="82.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -680,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -688,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -696,154 +721,165 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -854,296 +890,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="163.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="163.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="28" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B57" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="10"/>
+    </row>
+    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B62" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B67" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-    </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-    </row>
-    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
-    </row>
-    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-    </row>
-    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B71" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="10"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="10"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B81" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>too dire</t>
   </si>
@@ -263,6 +263,39 @@
   </si>
   <si>
     <t>encourage the development of (something, especially something desirable).</t>
+  </si>
+  <si>
+    <t>steep</t>
+  </si>
+  <si>
+    <t>meredek</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>variancia, elteres</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>ferdeseg</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>the sharpness of the peak of a frequency-distribution curve</t>
+  </si>
+  <si>
+    <t>lapultsag</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>suru</t>
   </si>
 </sst>
 </file>
@@ -363,15 +396,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -387,7 +420,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,17 +709,17 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.33203125" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -705,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -713,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -721,7 +754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -729,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -737,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -745,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -753,7 +786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -761,7 +794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -769,7 +802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -777,7 +810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -785,7 +818,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -793,7 +826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -801,7 +834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -809,7 +842,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -817,7 +850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -828,58 +861,101 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -892,17 +968,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="163.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="163.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -910,35 +986,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -946,7 +1022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -954,298 +1030,293 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-    </row>
-    <row r="28" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
     </row>
-    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
     </row>
-    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="12" t="s">
+    <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="12"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="12"/>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1258,6 +1329,11 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>too dire</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>suru</t>
+  </si>
+  <si>
+    <t>cannot be envisioned</t>
+  </si>
+  <si>
+    <t>nem lehet elkepzelni</t>
+  </si>
+  <si>
+    <t>nemozno si predstavit</t>
   </si>
 </sst>
 </file>
@@ -396,15 +405,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -420,7 +429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -709,17 +718,17 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="82.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -738,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -746,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -754,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -762,7 +771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -770,7 +779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -778,7 +787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -786,7 +795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -794,7 +803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -802,7 +811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -810,7 +819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -818,7 +827,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -826,7 +835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -834,7 +843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -842,7 +851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -850,7 +859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -861,7 +870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -869,7 +878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -877,7 +886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -885,7 +894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -896,7 +905,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -904,58 +913,69 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -972,13 +992,13 @@
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="163.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="163.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -986,35 +1006,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1030,293 +1050,298 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
     </row>
-    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-    </row>
-    <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="28" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
     </row>
-    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
     </row>
-    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
     </row>
-    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B67" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B77" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B81" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="11" t="s">
+    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1329,11 +1354,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>too dire</t>
   </si>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>nemozno si predstavit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">successor </t>
+  </si>
+  <si>
+    <t>jogutod</t>
+  </si>
+  <si>
+    <t>someone or something that follows and takes the job, place, or position that was held by another:</t>
   </si>
 </sst>
 </file>
@@ -405,15 +414,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -429,7 +438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -717,18 +726,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.33203125" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
-    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -747,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -755,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -763,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -771,7 +780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -779,7 +788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -787,7 +796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -795,7 +804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -803,7 +812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -811,7 +820,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -819,7 +828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -827,7 +836,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -835,7 +844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -843,7 +852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -851,7 +860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -859,7 +868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -870,7 +879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -878,7 +887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -886,7 +895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -894,7 +903,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -905,7 +914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -913,7 +922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -924,58 +933,69 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -992,13 +1012,13 @@
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="163.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="163.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -1006,35 +1026,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1050,298 +1070,293 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-    </row>
-    <row r="28" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
     </row>
-    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
     </row>
-    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="12" t="s">
+    <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="12"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="12"/>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1354,6 +1369,11 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hárok1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="das">Sheet1!$A:$A</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>too dire</t>
   </si>
@@ -314,6 +315,74 @@
   </si>
   <si>
     <t>someone or something that follows and takes the job, place, or position that was held by another:</t>
+  </si>
+  <si>
+    <t>Java ANT</t>
+  </si>
+  <si>
+    <t>Senior Cloud Operations Engineer</t>
+  </si>
+  <si>
+    <t>Terraform, Python/Bash/Go, Docker, Nginx, Postgres, CircleCI, Apache Spark/AWS</t>
+  </si>
+  <si>
+    <t>Experience with high concurrency servers running on JVM</t>
+  </si>
+  <si>
+    <t>Cloud Solutions Engineer</t>
+  </si>
+  <si>
+    <t>Docker, Terraform, Ansible, Kafka, CloudFormation, Sonar, Jenkins</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Kubernetes, Docker, GitLab, ElasticSearch Prometheus, Linux, MySQL, PostgreSQL</t>
+  </si>
+  <si>
+    <t>System Admin</t>
+  </si>
+  <si>
+    <t>RedHat, Fedora</t>
+  </si>
+  <si>
+    <t>Digital DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Docker, Kubernetes, JVM, XaaS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DevOps Engineer </t>
+  </si>
+  <si>
+    <t>Vmware, OpenShift, Selenium/Cucumber, TFS, Jenkins, Sonar, TomCat, Jboss, Wildfly</t>
+  </si>
+  <si>
+    <t>AWS Cloud and DevOps Architect</t>
+  </si>
+  <si>
+    <t>Pivotal</t>
+  </si>
+  <si>
+    <t>Senior System Engineer, DevOps</t>
+  </si>
+  <si>
+    <t>Linux, AWS, TCP/IP Nginx, PostgreSQL, Golang, NodeJS</t>
+  </si>
+  <si>
+    <t>Senior Site Reliability Engineer</t>
+  </si>
+  <si>
+    <t>Linux, Docker, Ansible, Bash, Bourne Shell, Go, Python, Postgres, Wireguard, Prometheus</t>
+  </si>
+  <si>
+    <t>Golang, C, node.js, Grafana, Prometheus, Zabbix, ELK stack, Redis.</t>
+  </si>
+  <si>
+    <t>Managed cloud services: AWS CloudFormation, CloudWatch, Lambdas, SQS, SNS, EC2, etc… or equivalents
+Linux, Git, infrastructure automation tools, scripting languages, monitoring tools (e.g. time series databases, log parsers, metric collectors, graphing tools, alerting tools)
+Java, PostgreSQL, Elasticsearch, Docker</t>
   </si>
 </sst>
 </file>
@@ -414,11 +483,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
@@ -1009,7 +1078,7 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,6 +1096,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
       <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
@@ -1113,15 +1185,15 @@
       </c>
     </row>
     <row r="19" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -1129,18 +1201,18 @@
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
@@ -1342,21 +1414,26 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1369,13 +1446,133 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>too dire</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>ITIL / ITSM</t>
-  </si>
-  <si>
-    <t>swagger</t>
   </si>
   <si>
     <t>connect to a windows server ?!</t>
@@ -383,6 +380,12 @@
     <t>Managed cloud services: AWS CloudFormation, CloudWatch, Lambdas, SQS, SNS, EC2, etc… or equivalents
 Linux, Git, infrastructure automation tools, scripting languages, monitoring tools (e.g. time series databases, log parsers, metric collectors, graphing tools, alerting tools)
 Java, PostgreSQL, Elasticsearch, Docker</t>
+  </si>
+  <si>
+    <t>swagger !!!</t>
+  </si>
+  <si>
+    <t>openAPI specification</t>
   </si>
 </sst>
 </file>
@@ -483,15 +486,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -507,7 +510,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -799,14 +802,14 @@
       <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="82.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -825,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -833,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -841,230 +844,230 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>92</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>96</v>
       </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -1077,363 +1080,363 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="163.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="163.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="28" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-    </row>
-    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-    </row>
-    <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-    </row>
-    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="10"/>
+    </row>
+    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B62" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-    </row>
-    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B67" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B71" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
-    </row>
-    <row r="71" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
+    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="10"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="10"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="10"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="10"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="10"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="10"/>
-    </row>
-    <row r="77" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="5" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B81" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="10"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="10"/>
-    </row>
-    <row r="81" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B81" s="5" t="s">
+    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="12"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="12"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1446,6 +1449,11 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1456,116 +1464,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" t="s">
         <v>112</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
     </row>
   </sheetData>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>too dire</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>openAPI specification</t>
+  </si>
+  <si>
+    <t>CRM certification</t>
+  </si>
+  <si>
+    <t>BI - Business Intelligence?!</t>
   </si>
 </sst>
 </file>
@@ -486,15 +492,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -510,7 +516,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -802,14 +808,14 @@
       <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.33203125" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
     <col min="3" max="3" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -828,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -836,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -844,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -852,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -860,7 +866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -868,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -876,7 +882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -884,7 +890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -892,7 +898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -900,7 +906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -908,7 +914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -916,7 +922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -924,7 +930,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -932,7 +938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -940,7 +946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -951,7 +957,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -959,7 +965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -967,7 +973,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -975,7 +981,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -986,7 +992,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1016,58 +1022,58 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -1081,16 +1087,16 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B8" sqref="B8:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="163.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="163.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1106,30 +1112,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1145,298 +1151,309 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-    </row>
-    <row r="28" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
     </row>
-    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
     </row>
-    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="11" t="s">
+    <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="11"/>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1449,11 +1466,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1468,13 +1480,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="88.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1482,12 +1494,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -1503,7 +1515,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
@@ -1511,7 +1523,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
@@ -1527,7 +1539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
@@ -1535,7 +1547,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
@@ -1543,7 +1555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
@@ -1551,29 +1563,29 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
   </sheetData>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>too dire</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>BI - Business Intelligence?!</t>
+  </si>
+  <si>
+    <t>dig utility (DNS)</t>
   </si>
 </sst>
 </file>
@@ -492,11 +495,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,7 +1090,7 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,6 +1200,9 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
       <c r="B16" s="10"/>
     </row>
     <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1205,15 +1211,15 @@
       </c>
     </row>
     <row r="19" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -1221,18 +1227,18 @@
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
@@ -1434,26 +1440,21 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="12"/>
+      <c r="B83" s="11"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="12"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
+      <c r="B85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1466,6 +1467,11 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>too dire</t>
   </si>
@@ -395,6 +395,27 @@
   </si>
   <si>
     <t>dig utility (DNS)</t>
+  </si>
+  <si>
+    <t>(data) is susceptible to fraud if it were stolen</t>
+  </si>
+  <si>
+    <t>csalasra hajlamos ha ellopjak ?!</t>
+  </si>
+  <si>
+    <t>office365</t>
+  </si>
+  <si>
+    <t>sharepoint</t>
+  </si>
+  <si>
+    <t>access advisor</t>
+  </si>
+  <si>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>aws cdk</t>
   </si>
 </sst>
 </file>
@@ -503,7 +524,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -519,7 +540,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -808,17 +829,17 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C34"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="82.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -837,7 +858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -845,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -853,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -861,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -869,7 +890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -877,7 +898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -885,7 +906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -893,7 +914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -901,7 +922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -909,7 +930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -917,7 +938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -925,7 +946,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -933,7 +954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -941,7 +962,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -949,7 +970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -960,7 +981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -968,7 +989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -976,7 +997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -984,7 +1005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -995,7 +1016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1003,7 +1024,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -1014,7 +1035,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1025,58 +1046,66 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -1090,16 +1119,16 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="163.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="163.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
@@ -1107,7 +1136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1115,30 +1144,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1146,7 +1175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1154,36 +1183,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -1191,7 +1220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -1199,258 +1228,275 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
     </row>
-    <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
     </row>
-    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
     </row>
-    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
     </row>
-    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B67" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B77" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B81" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
     </row>
   </sheetData>
@@ -1486,13 +1532,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1500,12 +1546,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
@@ -1513,7 +1559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -1521,7 +1567,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
@@ -1529,7 +1575,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
@@ -1537,7 +1583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
@@ -1545,7 +1591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
@@ -1553,7 +1599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
@@ -1561,7 +1607,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
@@ -1569,29 +1615,29 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
     </row>
   </sheetData>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>too dire</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>aws cdk</t>
+  </si>
+  <si>
+    <t>intend to do something</t>
+  </si>
+  <si>
+    <t>to have a plan in your mind to do something</t>
+  </si>
+  <si>
+    <t>5g</t>
   </si>
 </sst>
 </file>
@@ -516,11 +525,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +838,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,6 +1063,14 @@
         <v>125</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
     </row>
@@ -1119,7 +1136,7 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,7 +1268,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1259,32 +1276,35 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
@@ -1486,21 +1506,26 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="11"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="11"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1513,11 +1538,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>too dire</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>5g</t>
+  </si>
+  <si>
+    <t>conceivable</t>
+  </si>
+  <si>
+    <t>elkepzelheto</t>
   </si>
 </sst>
 </file>
@@ -525,15 +531,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -549,7 +555,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -837,18 +843,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.33203125" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
     <col min="3" max="3" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -867,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -875,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -883,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -891,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -899,7 +905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -907,7 +913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -915,7 +921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -923,7 +929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -931,7 +937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -939,7 +945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -947,7 +953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -955,7 +961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -963,7 +969,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -971,7 +977,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -979,7 +985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -990,7 +996,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1071,58 +1077,66 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -1135,17 +1149,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="163.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="163.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
@@ -1153,7 +1167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1161,30 +1175,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +1206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1200,36 +1214,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -1237,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -1245,18 +1259,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -1264,27 +1278,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -1292,240 +1306,235 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-    </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
     </row>
-    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
     </row>
-    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="12" t="s">
+    <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="12"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="12"/>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1538,6 +1547,11 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1552,13 +1566,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="88.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1566,12 +1580,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
@@ -1579,7 +1593,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -1587,7 +1601,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
@@ -1595,7 +1609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
@@ -1603,7 +1617,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
@@ -1611,7 +1625,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
@@ -1619,7 +1633,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
@@ -1627,7 +1641,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
@@ -1635,29 +1649,29 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
   </sheetData>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>too dire</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>elkepzelheto</t>
+  </si>
+  <si>
+    <t>sparsity</t>
+  </si>
+  <si>
+    <t>szoras</t>
   </si>
 </sst>
 </file>
@@ -531,11 +537,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,7 +850,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,6 +1089,14 @@
       </c>
       <c r="B27" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
@@ -1282,7 +1296,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1290,13 +1304,13 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1307,18 +1321,18 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
@@ -1520,21 +1534,26 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1547,11 +1566,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>too dire</t>
   </si>
@@ -437,6 +437,27 @@
   </si>
   <si>
     <t>szoras</t>
+  </si>
+  <si>
+    <t>corpus</t>
+  </si>
+  <si>
+    <t>gyujtemeny</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>toredek</t>
+  </si>
+  <si>
+    <t>impute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betud, berak, </t>
+  </si>
+  <si>
+    <t>impute values for missing data</t>
   </si>
 </sst>
 </file>
@@ -537,11 +558,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,6 +1118,33 @@
       </c>
       <c r="B28" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
@@ -1296,7 +1344,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1304,13 +1352,13 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1321,18 +1369,18 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
@@ -1534,26 +1582,21 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="12"/>
+      <c r="B83" s="11"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="12"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
+      <c r="B85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1566,6 +1609,11 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>too dire</t>
   </si>
@@ -458,6 +458,21 @@
   </si>
   <si>
     <t>impute values for missing data</t>
+  </si>
+  <si>
+    <t>pecularities</t>
+  </si>
+  <si>
+    <t>sajatossagok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pecularities of the training data… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fine print </t>
+  </si>
+  <si>
+    <t>text in a formal agreement that is printed smaller than the rest of the text, sometimes in the hope that it will not be noticed</t>
   </si>
 </sst>
 </file>
@@ -566,7 +581,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -582,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -870,18 +885,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="82.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -900,7 +915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -908,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -916,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -924,7 +939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -932,7 +947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -940,7 +955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -948,7 +963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -956,7 +971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -964,7 +979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -972,7 +987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -980,7 +995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1004,7 +1019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1012,7 +1027,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1039,7 +1054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1058,7 +1073,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1066,7 +1081,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -1077,7 +1092,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1088,7 +1103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1104,7 +1119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -1112,7 +1127,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -1120,7 +1135,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -1128,7 +1143,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -1136,7 +1151,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -1147,58 +1162,77 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -1215,13 +1249,13 @@
       <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="163.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="163.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1237,30 +1271,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1276,36 +1310,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -1313,7 +1347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -1321,18 +1355,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -1340,7 +1374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -1348,19 +1382,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -1368,231 +1402,231 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
     </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
     </row>
-    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
     </row>
-    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
     </row>
-    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B67" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B77" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B81" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
     </row>
   </sheetData>
@@ -1628,13 +1662,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1642,12 +1676,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
@@ -1655,7 +1689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -1663,7 +1697,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
@@ -1671,7 +1705,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
@@ -1679,7 +1713,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
@@ -1687,7 +1721,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
@@ -1695,7 +1729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
@@ -1703,7 +1737,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
@@ -1711,29 +1745,29 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
     </row>
   </sheetData>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>too dire</t>
   </si>
@@ -473,6 +473,27 @@
   </si>
   <si>
     <t>text in a formal agreement that is printed smaller than the rest of the text, sometimes in the hope that it will not be noticed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inadvertently </t>
+  </si>
+  <si>
+    <t>veletlenul</t>
+  </si>
+  <si>
+    <t>intrinsically</t>
+  </si>
+  <si>
+    <t>eredendoen</t>
+  </si>
+  <si>
+    <t>is an essential or natural way / the attributed income will intrinsically influence the result more due to its larger value</t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>munkaero</t>
   </si>
 </sst>
 </file>
@@ -573,11 +594,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,6 +1200,33 @@
       </c>
       <c r="C33" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
@@ -1378,7 +1426,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1386,13 +1434,13 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1403,18 +1451,18 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
@@ -1616,21 +1664,26 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="11"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="11"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1643,11 +1696,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>too dire</t>
   </si>
@@ -494,6 +494,42 @@
   </si>
   <si>
     <t>munkaero</t>
+  </si>
+  <si>
+    <t>residuals</t>
+  </si>
+  <si>
+    <t>maradekok</t>
+  </si>
+  <si>
+    <t>remedy</t>
+  </si>
+  <si>
+    <t>jogorvoslat, gyogyszer</t>
+  </si>
+  <si>
+    <t>subtle</t>
+  </si>
+  <si>
+    <t>apro, hajszalnyi, kifinomult</t>
+  </si>
+  <si>
+    <t>flatten</t>
+  </si>
+  <si>
+    <t>lelapul, lapit</t>
+  </si>
+  <si>
+    <t>scatter</t>
+  </si>
+  <si>
+    <t>szetszor, elterjeszt</t>
+  </si>
+  <si>
+    <t>damping factor</t>
+  </si>
+  <si>
+    <t>csillapito tenyezo</t>
   </si>
 </sst>
 </file>
@@ -907,7 +943,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,6 +1263,54 @@
       </c>
       <c r="B36" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>too dire</t>
   </si>
@@ -530,6 +530,12 @@
   </si>
   <si>
     <t>csillapito tenyezo</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>valoszinu</t>
   </si>
 </sst>
 </file>
@@ -630,11 +636,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,7 +949,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,6 +1317,14 @@
       </c>
       <c r="B42" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
@@ -1510,7 +1524,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1518,13 +1532,13 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1535,18 +1549,18 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
@@ -1748,26 +1762,21 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
+      <c r="B83" s="11"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="12"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="12"/>
+      <c r="B85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1780,6 +1789,11 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>too dire</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>valoszinu</t>
+  </si>
+  <si>
+    <t>ambiguous</t>
+  </si>
+  <si>
+    <t>ketertelmu</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -660,7 +666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -948,18 +954,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.33203125" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
     <col min="3" max="3" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -978,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -986,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -1327,58 +1333,66 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -1395,13 +1409,13 @@
       <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="163.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="163.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1417,30 +1431,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1456,36 +1470,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -1501,18 +1515,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -1520,7 +1534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -1528,19 +1542,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -1548,231 +1562,231 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
     </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
     </row>
-    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
     </row>
-    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
     </row>
   </sheetData>
@@ -1808,13 +1822,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="88.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1822,12 +1836,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
@@ -1835,7 +1849,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -1843,7 +1857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
@@ -1851,7 +1865,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
@@ -1859,7 +1873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
@@ -1867,7 +1881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
@@ -1875,7 +1889,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
@@ -1883,7 +1897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
@@ -1891,29 +1905,29 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
   </sheetData>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>too dire</t>
   </si>
@@ -542,6 +542,18 @@
   </si>
   <si>
     <t>ketertelmu</t>
+  </si>
+  <si>
+    <t>immediate constituents</t>
+  </si>
+  <si>
+    <t>kozvetlen alkotoelemek</t>
+  </si>
+  <si>
+    <t>osm (abbr.)</t>
+  </si>
+  <si>
+    <t>awesome</t>
   </si>
 </sst>
 </file>
@@ -955,7 +967,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,6 +1351,22 @@
       </c>
       <c r="B44" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>too dire</t>
   </si>
@@ -554,6 +554,30 @@
   </si>
   <si>
     <t>awesome</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>belul</t>
+  </si>
+  <si>
+    <t>within the box</t>
+  </si>
+  <si>
+    <t>expeditious</t>
+  </si>
+  <si>
+    <t>gyors</t>
+  </si>
+  <si>
+    <t>this technique is expeditious</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>atlag</t>
   </si>
 </sst>
 </file>
@@ -654,11 +678,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,7 +991,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,6 +1391,36 @@
       </c>
       <c r="B46" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
@@ -1566,7 +1620,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1574,13 +1628,13 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1591,18 +1645,18 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
@@ -1804,21 +1858,26 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1831,11 +1890,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>too dire</t>
   </si>
@@ -578,6 +578,15 @@
   </si>
   <si>
     <t>atlag</t>
+  </si>
+  <si>
+    <t>coarse-grained</t>
+  </si>
+  <si>
+    <t>durva szemcses</t>
+  </si>
+  <si>
+    <t>coarse-grained architecture (SOA)</t>
   </si>
 </sst>
 </file>
@@ -678,11 +687,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,12 +1424,23 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>183</v>
       </c>
       <c r="B49" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
@@ -1620,7 +1640,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1628,13 +1648,13 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1645,18 +1665,18 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
@@ -1858,26 +1878,21 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="12"/>
+      <c r="B83" s="11"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="12"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
+      <c r="B85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1890,6 +1905,11 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>too dire</t>
   </si>
@@ -587,6 +587,12 @@
   </si>
   <si>
     <t>coarse-grained architecture (SOA)</t>
+  </si>
+  <si>
+    <t>stratified</t>
+  </si>
+  <si>
+    <t>retegzett, retegelt</t>
   </si>
 </sst>
 </file>
@@ -687,11 +693,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,7 +1006,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,6 +1447,14 @@
       </c>
       <c r="C50" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
@@ -1640,7 +1654,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1648,13 +1662,13 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1665,18 +1679,18 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
@@ -1878,21 +1892,26 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1905,11 +1924,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>too dire</t>
   </si>
@@ -593,6 +593,18 @@
   </si>
   <si>
     <t>retegzett, retegelt</t>
+  </si>
+  <si>
+    <t>blockchain</t>
+  </si>
+  <si>
+    <t>ethereum</t>
+  </si>
+  <si>
+    <t>RPA - reverse proxy area</t>
+  </si>
+  <si>
+    <t>RPA developer ?!</t>
   </si>
 </sst>
 </file>
@@ -693,11 +705,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+    <sheetView topLeftCell="B34" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -1521,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1666,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1662,13 +1674,13 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1679,18 +1691,30 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="A23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="12"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
@@ -1892,26 +1916,21 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="12"/>
+      <c r="B83" s="11"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="12"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
+      <c r="B85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1924,6 +1943,11 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04-English/EN3-work.xlsx
+++ b/04-English/EN3-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>too dire</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>RPA developer ?!</t>
+  </si>
+  <si>
+    <t>one-stop place</t>
+  </si>
+  <si>
+    <t>place capable of meeting all of the needs of its visitors or customers.</t>
   </si>
 </sst>
 </file>
@@ -705,11 +711,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,11 +1468,19 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
       <c r="B51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
@@ -1533,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1666,7 +1680,7 @@
       <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1674,13 +1688,13 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1694,7 +1708,7 @@
       <c r="A23" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1702,19 +1716,19 @@
       <c r="A24" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
@@ -1916,21 +1930,26 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B2:B5"/>
@@ -1943,11 +1962,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
